--- a/biology/Médecine/Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport/Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport.xlsx
+++ b/biology/Médecine/Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport/Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L’institut de recherche biomédicale et d’épidémiologie du sport (IRMES) est un organisme public français consacré à la recherche biomédicale et épidémiologique du sport, placé sous la tutelle de l’INSEP, l’INSERM, l’AP-HP, et l’université Paris Descartes. Il est actuellement dirigé par Jean-François Toussaint.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Institut de recherche biomédicale et d’épidémiologie du sport (IRMES) est un institut créé en 2006 dans le but de refonder la médecine et l’épidémiologie du sport en France autour de données objectives permettant de mieux comprendre les problèmes sanitaires du sport de haut niveau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut de recherche biomédicale et d’épidémiologie du sport (IRMES) est un institut créé en 2006 dans le but de refonder la médecine et l’épidémiologie du sport en France autour de données objectives permettant de mieux comprendre les problèmes sanitaires du sport de haut niveau.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Missions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L’IRMES est chargé des missions suivantes :
 constituer une banque nationale de données épidémiologiques du sport de haut niveau ;
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Recherche médicale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il développe un programme, national et international d’études, ciblant, à titre prioritaire, trois champs d’investigation : 
 la physiopathologie du sport ;
@@ -596,7 +614,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -614,7 +632,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) G. Berthelot, V. Thibault, M. Tafflet, S. Escolano, N. El Helou, et al., The Citius End: World Records Progression Announces the Completion of a Brief Ultra-Physiological Quest, 2008
 (en) F.D. Desgorces, G. Berthelot, N. El Helou, V. Thibault, M. Guillaume, et al., From Oxford to Hawaii Ecophysiological Barriers Limit Human Progression in Ten Sport Monuments, 2008
@@ -632,7 +652,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Institut_de_recherche_biom%C3%A9dicale_et_d%27%C3%A9pid%C3%A9miologie_du_sport</t>
+          <t>Institut_de_recherche_biomédicale_et_d'épidémiologie_du_sport</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +670,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Site officiel
